--- a/tp3-busquedas-no-informadas/Resultados_Simulacion.xlsx
+++ b/tp3-busquedas-no-informadas/Resultados_Simulacion.xlsx
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>480303704</v>
+        <v>687370070</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -480,24 +480,24 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2086</v>
+        <v>6376</v>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002811670303344727</v>
+        <v>0.01594901084899902</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>480303704</v>
+        <v>687370070</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2681</v>
+        <v>6519</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -517,12 +517,12 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04808783531188965</v>
+        <v>0.1931993961334229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>480303704</v>
+        <v>687370070</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -542,12 +542,12 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0018157958984375</v>
+        <v>0.001667022705078125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>480303704</v>
+        <v>687370070</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -555,24 +555,24 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2030</v>
+        <v>6315</v>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005224466323852539</v>
+        <v>0.01834797859191895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>480303704</v>
+        <v>687370070</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -580,24 +580,24 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>642</v>
+        <v>6002</v>
       </c>
       <c r="D6" t="n">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001509904861450195</v>
+        <v>0.05785679817199707</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>480303704</v>
+        <v>687370070</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -605,24 +605,24 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>123</v>
+        <v>1881</v>
       </c>
       <c r="D7" t="n">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>313</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003147125244140625</v>
+        <v>0.007200241088867188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>813934303</v>
+        <v>779896759</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -630,24 +630,24 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3020</v>
+        <v>3580</v>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E8" t="n">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004096508026123047</v>
+        <v>0.005102872848510742</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>813934303</v>
+        <v>779896759</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -655,24 +655,24 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7445</v>
+        <v>633</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1387</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1522853374481201</v>
+        <v>0.002559423446655273</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>813934303</v>
+        <v>779896759</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -692,12 +692,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0008966922760009766</v>
+        <v>0.0001158714294433594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>813934303</v>
+        <v>779896759</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -705,24 +705,24 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2911</v>
+        <v>3555</v>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E11" t="n">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007658720016479492</v>
+        <v>0.03932738304138184</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>813934303</v>
+        <v>779896759</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -730,24 +730,24 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3629</v>
+        <v>2950</v>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009567737579345703</v>
+        <v>0.008086442947387695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>813934303</v>
+        <v>779896759</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -755,24 +755,24 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="D13" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E13" t="n">
-        <v>153</v>
+        <v>257</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0016632080078125</v>
+        <v>0.001769542694091797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>65438922</v>
+        <v>476215304</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -780,24 +780,24 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6335</v>
+        <v>4193</v>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E14" t="n">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009558916091918945</v>
+        <v>0.007016420364379883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>65438922</v>
+        <v>476215304</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2806</v>
+        <v>4713</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -817,12 +817,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05969429016113281</v>
+        <v>0.1836531162261963</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>65438922</v>
+        <v>476215304</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -842,12 +842,12 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001713991165161133</v>
+        <v>0.004426002502441406</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>65438922</v>
+        <v>476215304</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -855,24 +855,24 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6271</v>
+        <v>4035</v>
       </c>
       <c r="D17" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04810357093811035</v>
+        <v>0.01736068725585938</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>65438922</v>
+        <v>476215304</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -880,24 +880,24 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5436</v>
+        <v>7471</v>
       </c>
       <c r="D18" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01505327224731445</v>
+        <v>0.03020906448364258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>65438922</v>
+        <v>476215304</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -905,24 +905,24 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1396</v>
+        <v>704</v>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E19" t="n">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003999710083007812</v>
+        <v>0.002030849456787109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>651834024</v>
+        <v>968765550</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -930,24 +930,24 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3058</v>
+        <v>4819</v>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E20" t="n">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004049062728881836</v>
+        <v>0.006685972213745117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>651834024</v>
+        <v>968765550</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1659</v>
+        <v>1924</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -967,12 +967,12 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02014613151550293</v>
+        <v>0.02965903282165527</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>651834024</v>
+        <v>968765550</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -992,12 +992,12 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0007035732269287109</v>
+        <v>0.0007026195526123047</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>651834024</v>
+        <v>968765550</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1005,24 +1005,24 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3031</v>
+        <v>4718</v>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" t="n">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.007967948913574219</v>
+        <v>0.02668523788452148</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>651834024</v>
+        <v>968765550</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1030,24 +1030,24 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2452</v>
+        <v>4528</v>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E24" t="n">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006020069122314453</v>
+        <v>0.02548599243164062</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>651834024</v>
+        <v>968765550</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1055,24 +1055,24 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E25" t="n">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0005376338958740234</v>
+        <v>0.001562356948852539</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>407924128</v>
+        <v>309634916</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1080,24 +1080,24 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4389</v>
+        <v>6443</v>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E26" t="n">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.006217241287231445</v>
+        <v>0.009422063827514648</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>407924128</v>
+        <v>309634916</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7614</v>
+        <v>4454</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1117,12 +1117,12 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1594531536102295</v>
+        <v>0.1565771102905273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>407924128</v>
+        <v>309634916</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1142,12 +1142,12 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0006604194641113281</v>
+        <v>0.004371881484985352</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>407924128</v>
+        <v>309634916</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1155,24 +1155,24 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4325</v>
+        <v>6248</v>
       </c>
       <c r="D29" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E29" t="n">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01194286346435547</v>
+        <v>0.01851367950439453</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>407924128</v>
+        <v>309634916</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1180,24 +1180,24 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3846</v>
+        <v>7699</v>
       </c>
       <c r="D30" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E30" t="n">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.009985446929931641</v>
+        <v>0.02187991142272949</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>407924128</v>
+        <v>309634916</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1205,24 +1205,24 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>361</v>
+        <v>1070</v>
       </c>
       <c r="D31" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E31" t="n">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0009732246398925781</v>
+        <v>0.003156900405883789</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>866772809</v>
+        <v>28852913</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1230,24 +1230,24 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4801</v>
+        <v>3734</v>
       </c>
       <c r="D32" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E32" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.006770849227905273</v>
+        <v>0.01051211357116699</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>866772809</v>
+        <v>28852913</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4024</v>
+        <v>5080</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1267,12 +1267,12 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.101581335067749</v>
+        <v>0.1659448146820068</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>866772809</v>
+        <v>28852913</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1292,12 +1292,12 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.002881288528442383</v>
+        <v>0.004609346389770508</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>866772809</v>
+        <v>28852913</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1305,24 +1305,24 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4642</v>
+        <v>3562</v>
       </c>
       <c r="D35" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E35" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01305222511291504</v>
+        <v>0.01025295257568359</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>866772809</v>
+        <v>28852913</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1330,24 +1330,24 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7028</v>
+        <v>5759</v>
       </c>
       <c r="D36" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02071738243103027</v>
+        <v>0.01781964302062988</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>866772809</v>
+        <v>28852913</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1355,24 +1355,24 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>819</v>
+        <v>661</v>
       </c>
       <c r="D37" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E37" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.002285480499267578</v>
+        <v>0.002074956893920898</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>860512716</v>
+        <v>797431156</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3479</v>
+        <v>4726</v>
       </c>
       <c r="D38" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E38" t="n">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.004700422286987305</v>
+        <v>0.006666183471679688</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>860512716</v>
+        <v>797431156</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6191</v>
+        <v>5739</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1417,12 +1417,12 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1650409698486328</v>
+        <v>0.185753345489502</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>860512716</v>
+        <v>797431156</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1442,12 +1442,12 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.001937389373779297</v>
+        <v>0.005951881408691406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>860512716</v>
+        <v>797431156</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1455,24 +1455,24 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3368</v>
+        <v>4634</v>
       </c>
       <c r="D41" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E41" t="n">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0.009064435958862305</v>
+        <v>0.02072525024414062</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>860512716</v>
+        <v>797431156</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1480,24 +1480,24 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3915</v>
+        <v>5003</v>
       </c>
       <c r="D42" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E42" t="n">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0102536678314209</v>
+        <v>0.01967334747314453</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>860512716</v>
+        <v>797431156</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1505,24 +1505,24 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>398</v>
+        <v>516</v>
       </c>
       <c r="D43" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E43" t="n">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.001093864440917969</v>
+        <v>0.001502513885498047</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>364311751</v>
+        <v>851294294</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1530,24 +1530,24 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3273</v>
+        <v>6822</v>
       </c>
       <c r="D44" t="n">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E44" t="n">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0.004427909851074219</v>
+        <v>0.01552295684814453</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>364311751</v>
+        <v>851294294</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5948</v>
+        <v>2378</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -1567,12 +1567,12 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1641745567321777</v>
+        <v>0.04875397682189941</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>364311751</v>
+        <v>851294294</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1592,12 +1592,12 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.002136468887329102</v>
+        <v>0.001082658767700195</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>364311751</v>
+        <v>851294294</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1605,24 +1605,24 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3149</v>
+        <v>6797</v>
       </c>
       <c r="D47" t="n">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E47" t="n">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0.008946895599365234</v>
+        <v>0.02085280418395996</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>364311751</v>
+        <v>851294294</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1630,24 +1630,24 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4761</v>
+        <v>6210</v>
       </c>
       <c r="D48" t="n">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E48" t="n">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01306581497192383</v>
+        <v>0.01771116256713867</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>364311751</v>
+        <v>851294294</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1655,24 +1655,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>607</v>
+        <v>2236</v>
       </c>
       <c r="D49" t="n">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E49" t="n">
-        <v>127</v>
+        <v>356</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0.00171351432800293</v>
+        <v>0.006946563720703125</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>195144472</v>
+        <v>327953310</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1680,24 +1680,24 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>9133</v>
+        <v>7126</v>
       </c>
       <c r="D50" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E50" t="n">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01412034034729004</v>
+        <v>0.01088857650756836</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>195144472</v>
+        <v>327953310</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4463</v>
+        <v>6917</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1717,12 +1717,12 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1323368549346924</v>
+        <v>0.1941990852355957</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>195144472</v>
+        <v>327953310</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1742,12 +1742,12 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.003610134124755859</v>
+        <v>0.001243829727172852</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>195144472</v>
+        <v>327953310</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1755,24 +1755,24 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9125</v>
+        <v>7096</v>
       </c>
       <c r="D53" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E53" t="n">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02704453468322754</v>
+        <v>0.02209377288818359</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>195144472</v>
+        <v>327953310</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1780,24 +1780,24 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9107</v>
+        <v>6728</v>
       </c>
       <c r="D54" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E54" t="n">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02648282051086426</v>
+        <v>0.01935482025146484</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>195144472</v>
+        <v>327953310</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1805,24 +1805,24 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3606</v>
+        <v>2523</v>
       </c>
       <c r="D55" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E55" t="n">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01185297966003418</v>
+        <v>0.008189916610717773</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>129785033</v>
+        <v>4044893</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1830,24 +1830,24 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>484</v>
+        <v>3418</v>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E56" t="n">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0005900859832763672</v>
+        <v>0.004797220230102539</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>129785033</v>
+        <v>4044893</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1855,24 +1855,24 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1093</v>
+        <v>3538</v>
       </c>
       <c r="D57" t="n">
-        <v>923</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.007674694061279297</v>
+        <v>0.06540894508361816</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>129785033</v>
+        <v>4044893</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1892,12 +1892,12 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.000293731689453125</v>
+        <v>0.002197265625</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>129785033</v>
+        <v>4044893</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1905,24 +1905,24 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>410</v>
+        <v>3302</v>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E59" t="n">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0009646415710449219</v>
+        <v>0.009556293487548828</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>129785033</v>
+        <v>4044893</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1930,24 +1930,24 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>939</v>
+        <v>5250</v>
       </c>
       <c r="D60" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E60" t="n">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.002233266830444336</v>
+        <v>0.0152442455291748</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>129785033</v>
+        <v>4044893</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1955,24 +1955,24 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>834</v>
       </c>
       <c r="D61" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E61" t="n">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>8.916854858398438e-05</v>
+        <v>0.002377748489379883</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>921980677</v>
+        <v>670419064</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1980,24 +1980,24 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2783</v>
+        <v>8906</v>
       </c>
       <c r="D62" t="n">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="E62" t="n">
-        <v>131</v>
+        <v>377</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.003875255584716797</v>
+        <v>0.01343846321105957</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>921980677</v>
+        <v>670419064</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6801</v>
+        <v>5245</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -2017,12 +2017,12 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.15641188621521</v>
+        <v>0.1661348342895508</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>921980677</v>
+        <v>670419064</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -2042,12 +2042,12 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0008754730224609375</v>
+        <v>0.003793239593505859</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>921980677</v>
+        <v>670419064</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2055,24 +2055,24 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2716</v>
+        <v>8879</v>
       </c>
       <c r="D65" t="n">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="E65" t="n">
-        <v>131</v>
+        <v>377</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0.007658243179321289</v>
+        <v>0.02732563018798828</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>921980677</v>
+        <v>670419064</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2080,24 +2080,24 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4152</v>
+        <v>8864</v>
       </c>
       <c r="D66" t="n">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="E66" t="n">
-        <v>131</v>
+        <v>377</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01156115531921387</v>
+        <v>0.02574729919433594</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>921980677</v>
+        <v>670419064</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2105,24 +2105,24 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>408</v>
+        <v>2557</v>
       </c>
       <c r="D67" t="n">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="E67" t="n">
-        <v>131</v>
+        <v>377</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0.001112222671508789</v>
+        <v>0.008606195449829102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>927909326</v>
+        <v>582055554</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2130,24 +2130,24 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9033</v>
+        <v>565</v>
       </c>
       <c r="D68" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E68" t="n">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0139610767364502</v>
+        <v>0.0006959438323974609</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>927909326</v>
+        <v>582055554</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8054</v>
+        <v>1122</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2167,12 +2167,12 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1568403244018555</v>
+        <v>0.009365081787109375</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>927909326</v>
+        <v>582055554</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -2192,12 +2192,12 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0003917217254638672</v>
+        <v>0.0003454685211181641</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>927909326</v>
+        <v>582055554</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2205,24 +2205,24 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>9007</v>
+        <v>522</v>
       </c>
       <c r="D71" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E71" t="n">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02702474594116211</v>
+        <v>0.001277923583984375</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>927909326</v>
+        <v>582055554</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2230,24 +2230,24 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8964</v>
+        <v>229</v>
       </c>
       <c r="D72" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E72" t="n">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>0.02545428276062012</v>
+        <v>0.000530242919921875</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>927909326</v>
+        <v>582055554</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2255,24 +2255,24 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2720</v>
+        <v>41</v>
       </c>
       <c r="D73" t="n">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="E73" t="n">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0.00863194465637207</v>
+        <v>0.0001039505004882812</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>127620800</v>
+        <v>806910757</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2280,24 +2280,24 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6627</v>
+        <v>3505</v>
       </c>
       <c r="D74" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E74" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.009409427642822266</v>
+        <v>0.004888534545898438</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>127620800</v>
+        <v>806910757</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1454</v>
+        <v>2885</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -2317,12 +2317,12 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.01719975471496582</v>
+        <v>0.06745386123657227</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>127620800</v>
+        <v>806910757</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -2342,12 +2342,12 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0005605220794677734</v>
+        <v>0.001881837844848633</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>127620800</v>
+        <v>806910757</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2355,24 +2355,24 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6561</v>
+        <v>3431</v>
       </c>
       <c r="D77" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E77" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01887059211730957</v>
+        <v>0.009557485580444336</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>127620800</v>
+        <v>806910757</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2380,24 +2380,24 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2337</v>
+        <v>3359</v>
       </c>
       <c r="D78" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E78" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F78" t="b">
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>0.006313562393188477</v>
+        <v>0.009287595748901367</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>127620800</v>
+        <v>806910757</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2405,24 +2405,24 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>409</v>
+        <v>829</v>
       </c>
       <c r="D79" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E79" t="n">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>0.001099824905395508</v>
+        <v>0.002287387847900391</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16106570</v>
+        <v>649473591</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2430,24 +2430,24 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5268</v>
+        <v>4605</v>
       </c>
       <c r="D80" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E80" t="n">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.007644414901733398</v>
+        <v>0.006684541702270508</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>16106570</v>
+        <v>649473591</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4554</v>
+        <v>5383</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2467,12 +2467,12 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1439955234527588</v>
+        <v>0.1716001033782959</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>16106570</v>
+        <v>649473591</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -2492,12 +2492,12 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0.005089282989501953</v>
+        <v>0.003654956817626953</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>16106570</v>
+        <v>649473591</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2505,24 +2505,24 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5061</v>
+        <v>4457</v>
       </c>
       <c r="D83" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E83" t="n">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01489591598510742</v>
+        <v>0.01326990127563477</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>16106570</v>
+        <v>649473591</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2530,24 +2530,24 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7250</v>
+        <v>6456</v>
       </c>
       <c r="D84" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E84" t="n">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02063965797424316</v>
+        <v>0.01896405220031738</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>16106570</v>
+        <v>649473591</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2555,24 +2555,24 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>220</v>
+        <v>909</v>
       </c>
       <c r="D85" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E85" t="n">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0006287097930908203</v>
+        <v>0.002713441848754883</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>375706144</v>
+        <v>902324</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2580,24 +2580,24 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>780</v>
+        <v>326</v>
       </c>
       <c r="D86" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E86" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0.001050472259521484</v>
+        <v>0.0007252693176269531</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>375706144</v>
+        <v>902324</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2605,24 +2605,24 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>8343</v>
+        <v>1473</v>
       </c>
       <c r="D87" t="n">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>1935</v>
+        <v>0</v>
       </c>
       <c r="F87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1657624244689941</v>
+        <v>0.01695013046264648</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>375706144</v>
+        <v>902324</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2642,12 +2642,12 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0001969337463378906</v>
+        <v>0.000431060791015625</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>375706144</v>
+        <v>902324</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2655,24 +2655,24 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>707</v>
+        <v>239</v>
       </c>
       <c r="D89" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>0.001782417297363281</v>
+        <v>0.0005960464477539062</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>375706144</v>
+        <v>902324</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2680,24 +2680,24 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1478</v>
+        <v>940</v>
       </c>
       <c r="D90" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E90" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0.003711938858032227</v>
+        <v>0.0023956298828125</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>375706144</v>
+        <v>902324</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2705,24 +2705,24 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="D91" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0002977848052978516</v>
+        <v>6.437301635742188e-05</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>700362695</v>
+        <v>582343541</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2730,24 +2730,24 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5498</v>
+        <v>986</v>
       </c>
       <c r="D92" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E92" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0.007861137390136719</v>
+        <v>0.001261234283447266</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>700362695</v>
+        <v>582343541</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2755,24 +2755,24 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="D93" t="n">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="E93" t="n">
-        <v>423</v>
+        <v>195</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0005464553833007812</v>
+        <v>0.0002195835113525391</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>700362695</v>
+        <v>582343541</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2792,12 +2792,12 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0001358985900878906</v>
+        <v>0.0001034736633300781</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>700362695</v>
+        <v>582343541</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2805,24 +2805,24 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5483</v>
+        <v>969</v>
       </c>
       <c r="D95" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E95" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01519465446472168</v>
+        <v>0.002325534820556641</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>700362695</v>
+        <v>582343541</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2830,24 +2830,24 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2301</v>
+        <v>333</v>
       </c>
       <c r="D96" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E96" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>0.005842208862304688</v>
+        <v>0.0007569789886474609</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>700362695</v>
+        <v>582343541</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2855,24 +2855,24 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="D97" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E97" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0008754730224609375</v>
+        <v>0.0001993179321289062</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>171709086</v>
+        <v>697502142</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2880,24 +2880,24 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>695</v>
+        <v>3068</v>
       </c>
       <c r="D98" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E98" t="n">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0008866786956787109</v>
+        <v>0.00414729118347168</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>171709086</v>
+        <v>697502142</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4327</v>
+        <v>2750</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2917,12 +2917,12 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1907944679260254</v>
+        <v>0.06975054740905762</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>171709086</v>
+        <v>697502142</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2942,12 +2942,12 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.003947973251342773</v>
+        <v>0.001216411590576172</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>171709086</v>
+        <v>697502142</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2955,24 +2955,24 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>594</v>
+        <v>2920</v>
       </c>
       <c r="D101" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E101" t="n">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>0.001603364944458008</v>
+        <v>0.007997751235961914</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>171709086</v>
+        <v>697502142</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -2980,24 +2980,24 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1497</v>
+        <v>3589</v>
       </c>
       <c r="D102" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E102" t="n">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>0.004521608352661133</v>
+        <v>0.04323530197143555</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>171709086</v>
+        <v>697502142</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3005,24 +3005,24 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>71</v>
+        <v>428</v>
       </c>
       <c r="D103" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E103" t="n">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0001919269561767578</v>
+        <v>0.00138401985168457</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>978811279</v>
+        <v>231453209</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3030,24 +3030,24 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7533</v>
+        <v>770</v>
       </c>
       <c r="D104" t="n">
+        <v>24</v>
+      </c>
+      <c r="E104" t="n">
         <v>69</v>
       </c>
-      <c r="E104" t="n">
-        <v>186</v>
-      </c>
       <c r="F104" t="b">
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01141119003295898</v>
+        <v>0.0009667873382568359</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>978811279</v>
+        <v>231453209</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1794</v>
+        <v>2914</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -3067,12 +3067,12 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02339053153991699</v>
+        <v>0.1187980175018311</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>978811279</v>
+        <v>231453209</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -3092,12 +3092,12 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0006544589996337891</v>
+        <v>0.001574516296386719</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>978811279</v>
+        <v>231453209</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3105,24 +3105,24 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7408</v>
+        <v>716</v>
       </c>
       <c r="D107" t="n">
+        <v>24</v>
+      </c>
+      <c r="E107" t="n">
         <v>69</v>
       </c>
-      <c r="E107" t="n">
-        <v>186</v>
-      </c>
       <c r="F107" t="b">
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02223706245422363</v>
+        <v>0.001813173294067383</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>978811279</v>
+        <v>231453209</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3130,24 +3130,24 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>7204</v>
+        <v>768</v>
       </c>
       <c r="D108" t="n">
+        <v>24</v>
+      </c>
+      <c r="E108" t="n">
         <v>69</v>
       </c>
-      <c r="E108" t="n">
-        <v>186</v>
-      </c>
       <c r="F108" t="b">
         <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02112150192260742</v>
+        <v>0.001811742782592773</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>978811279</v>
+        <v>231453209</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3155,24 +3155,24 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>981</v>
+        <v>80</v>
       </c>
       <c r="D109" t="n">
+        <v>24</v>
+      </c>
+      <c r="E109" t="n">
         <v>69</v>
       </c>
-      <c r="E109" t="n">
-        <v>186</v>
-      </c>
       <c r="F109" t="b">
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>0.003031492233276367</v>
+        <v>0.0002119541168212891</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>102673244</v>
+        <v>792355107</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3180,24 +3180,24 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>231</v>
+        <v>6180</v>
       </c>
       <c r="D110" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E110" t="n">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="F110" t="b">
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0002844333648681641</v>
+        <v>0.01666641235351562</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>102673244</v>
+        <v>792355107</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3205,24 +3205,24 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>859</v>
+        <v>4044</v>
       </c>
       <c r="D111" t="n">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1487</v>
+        <v>0</v>
       </c>
       <c r="F111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.005912542343139648</v>
+        <v>0.1550972461700439</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>102673244</v>
+        <v>792355107</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -3242,12 +3242,12 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0002241134643554688</v>
+        <v>0.003355503082275391</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>102673244</v>
+        <v>792355107</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3255,24 +3255,24 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>210</v>
+        <v>6033</v>
       </c>
       <c r="D113" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E113" t="n">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="F113" t="b">
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0004823207855224609</v>
+        <v>0.01766324043273926</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>102673244</v>
+        <v>792355107</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3280,24 +3280,24 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>83</v>
+        <v>7001</v>
       </c>
       <c r="D114" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E114" t="n">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0001800060272216797</v>
+        <v>0.01999163627624512</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>102673244</v>
+        <v>792355107</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3305,24 +3305,24 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>25</v>
+        <v>572</v>
       </c>
       <c r="D115" t="n">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E115" t="n">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>6.341934204101562e-05</v>
+        <v>0.001597404479980469</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>635969052</v>
+        <v>838238440</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3330,24 +3330,24 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3210</v>
+        <v>4013</v>
       </c>
       <c r="D116" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E116" t="n">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F116" t="b">
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>0.004225969314575195</v>
+        <v>0.005545854568481445</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>635969052</v>
+        <v>838238440</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3974</v>
+        <v>5356</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -3367,12 +3367,12 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0.124154806137085</v>
+        <v>0.1563503742218018</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>635969052</v>
+        <v>838238440</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
@@ -3392,12 +3392,12 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.002661943435668945</v>
+        <v>0.004400730133056641</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>635969052</v>
+        <v>838238440</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3405,24 +3405,24 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2991</v>
+        <v>3871</v>
       </c>
       <c r="D119" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E119" t="n">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>0.008434772491455078</v>
+        <v>0.02166891098022461</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>635969052</v>
+        <v>838238440</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3430,24 +3430,24 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>5315</v>
+        <v>5212</v>
       </c>
       <c r="D120" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E120" t="n">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F120" t="b">
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>0.01543712615966797</v>
+        <v>0.02916979789733887</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>635969052</v>
+        <v>838238440</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3455,24 +3455,24 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D121" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E121" t="n">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F121" t="b">
         <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>0.001063346862792969</v>
+        <v>0.001142740249633789</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>285920333</v>
+        <v>260464461</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3480,24 +3480,24 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>776</v>
+        <v>8549</v>
       </c>
       <c r="D122" t="n">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E122" t="n">
-        <v>23</v>
+        <v>331</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0009884834289550781</v>
+        <v>0.01282238960266113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>285920333</v>
+        <v>260464461</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3505,24 +3505,24 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>8435</v>
+        <v>3104</v>
       </c>
       <c r="D123" t="n">
-        <v>692</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>1493</v>
+        <v>0</v>
       </c>
       <c r="F123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1569790840148926</v>
+        <v>0.09439849853515625</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>285920333</v>
+        <v>260464461</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -3542,12 +3542,12 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0001580715179443359</v>
+        <v>0.002065896987915039</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>285920333</v>
+        <v>260464461</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3555,24 +3555,24 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>736</v>
+        <v>8538</v>
       </c>
       <c r="D125" t="n">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E125" t="n">
-        <v>23</v>
+        <v>331</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>0.001840353012084961</v>
+        <v>0.02602696418762207</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>285920333</v>
+        <v>260464461</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3580,24 +3580,24 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>242</v>
+        <v>8353</v>
       </c>
       <c r="D126" t="n">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E126" t="n">
-        <v>23</v>
+        <v>331</v>
       </c>
       <c r="F126" t="b">
         <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0005660057067871094</v>
+        <v>0.02349567413330078</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>285920333</v>
+        <v>260464461</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3605,24 +3605,24 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>67</v>
+        <v>1854</v>
       </c>
       <c r="D127" t="n">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="E127" t="n">
-        <v>23</v>
+        <v>331</v>
       </c>
       <c r="F127" t="b">
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0002274513244628906</v>
+        <v>0.005627870559692383</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>517588338</v>
+        <v>212969466</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3630,24 +3630,24 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8531</v>
+        <v>1817</v>
       </c>
       <c r="D128" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E128" t="n">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F128" t="b">
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>0.01339173316955566</v>
+        <v>0.004803895950317383</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>517588338</v>
+        <v>212969466</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3655,24 +3655,24 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>5740</v>
+        <v>720</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>676</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>1482</v>
       </c>
       <c r="F129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>0.202542781829834</v>
+        <v>0.005558490753173828</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>517588338</v>
+        <v>212969466</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3692,12 +3692,12 @@
         <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>0.002752780914306641</v>
+        <v>0.0002727508544921875</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>517588338</v>
+        <v>212969466</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3705,24 +3705,24 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>8473</v>
+        <v>1744</v>
       </c>
       <c r="D131" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E131" t="n">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F131" t="b">
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0.02684760093688965</v>
+        <v>0.008947372436523438</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>517588338</v>
+        <v>212969466</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3730,24 +3730,24 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>7696</v>
+        <v>2128</v>
       </c>
       <c r="D132" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E132" t="n">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>0.02354812622070312</v>
+        <v>0.01066160202026367</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>517588338</v>
+        <v>212969466</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3755,24 +3755,24 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1705</v>
+        <v>195</v>
       </c>
       <c r="D133" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E133" t="n">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>0.005621671676635742</v>
+        <v>0.001044034957885742</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>874958604</v>
+        <v>173138685</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3780,24 +3780,24 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1621</v>
+        <v>4084</v>
       </c>
       <c r="D134" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E134" t="n">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>0.002165317535400391</v>
+        <v>0.005605936050415039</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>874958604</v>
+        <v>173138685</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3805,24 +3805,24 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>9002</v>
+        <v>7289</v>
       </c>
       <c r="D135" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="F135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1429386138916016</v>
+        <v>0.1843178272247314</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>874958604</v>
+        <v>173138685</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -3842,12 +3842,12 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0001535415649414062</v>
+        <v>0.0003437995910644531</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>874958604</v>
+        <v>173138685</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3855,24 +3855,24 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1570</v>
+        <v>4048</v>
       </c>
       <c r="D137" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E137" t="n">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>0.004061222076416016</v>
+        <v>0.01116156578063965</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>874958604</v>
+        <v>173138685</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3880,24 +3880,24 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2008</v>
+        <v>2671</v>
       </c>
       <c r="D138" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E138" t="n">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>0.005250692367553711</v>
+        <v>0.006890773773193359</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>874958604</v>
+        <v>173138685</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3905,24 +3905,24 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>213</v>
+        <v>701</v>
       </c>
       <c r="D139" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E139" t="n">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0005769729614257812</v>
+        <v>0.001974821090698242</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>966669371</v>
+        <v>798922905</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3930,24 +3930,24 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>4356</v>
+        <v>2277</v>
       </c>
       <c r="D140" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E140" t="n">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>0.007447957992553711</v>
+        <v>0.006041288375854492</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>966669371</v>
+        <v>798922905</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1839</v>
+        <v>2491</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -3967,12 +3967,12 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0.02459931373596191</v>
+        <v>0.05608177185058594</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>966669371</v>
+        <v>798922905</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3992,12 +3992,12 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0007967948913574219</v>
+        <v>0.0008494853973388672</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>966669371</v>
+        <v>798922905</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4005,24 +4005,24 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>4280</v>
+        <v>2230</v>
       </c>
       <c r="D143" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E143" t="n">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="F143" t="b">
         <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>0.01312947273254395</v>
+        <v>0.005901098251342773</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>966669371</v>
+        <v>798922905</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4030,24 +4030,24 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>4387</v>
+        <v>1214</v>
       </c>
       <c r="D144" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E144" t="n">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
       </c>
       <c r="G144" t="n">
-        <v>0.01345372200012207</v>
+        <v>0.002992391586303711</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>966669371</v>
+        <v>798922905</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4055,24 +4055,24 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>980</v>
+        <v>311</v>
       </c>
       <c r="D145" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E145" t="n">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
       </c>
       <c r="G145" t="n">
-        <v>0.002889394760131836</v>
+        <v>0.0008184909820556641</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>740334308</v>
+        <v>215385463</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4080,24 +4080,24 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>8161</v>
+        <v>6477</v>
       </c>
       <c r="D146" t="n">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E146" t="n">
-        <v>418</v>
+        <v>215</v>
       </c>
       <c r="F146" t="b">
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>0.01324367523193359</v>
+        <v>0.009525060653686523</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>740334308</v>
+        <v>215385463</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4105,24 +4105,24 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>4182</v>
+        <v>807</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1741</v>
       </c>
       <c r="F147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1288161277770996</v>
+        <v>0.004523754119873047</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>740334308</v>
+        <v>215385463</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
@@ -4142,12 +4142,12 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0.003987550735473633</v>
+        <v>0.0001559257507324219</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>740334308</v>
+        <v>215385463</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4155,24 +4155,24 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8052</v>
+        <v>6451</v>
       </c>
       <c r="D149" t="n">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E149" t="n">
-        <v>418</v>
+        <v>215</v>
       </c>
       <c r="F149" t="b">
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>0.02623176574707031</v>
+        <v>0.0183570384979248</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>740334308</v>
+        <v>215385463</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4180,24 +4180,24 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>8717</v>
+        <v>5040</v>
       </c>
       <c r="D150" t="n">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E150" t="n">
-        <v>418</v>
+        <v>215</v>
       </c>
       <c r="F150" t="b">
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>0.02701735496520996</v>
+        <v>0.02365517616271973</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>740334308</v>
+        <v>215385463</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4205,24 +4205,24 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1545</v>
+        <v>1116</v>
       </c>
       <c r="D151" t="n">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E151" t="n">
-        <v>418</v>
+        <v>215</v>
       </c>
       <c r="F151" t="b">
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>0.005299806594848633</v>
+        <v>0.006767034530639648</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>637263696</v>
+        <v>869076591</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4230,24 +4230,24 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7921</v>
+        <v>8213</v>
       </c>
       <c r="D152" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E152" t="n">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="F152" t="b">
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>0.01208853721618652</v>
+        <v>0.01264715194702148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>637263696</v>
+        <v>869076591</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4255,24 +4255,24 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>8500</v>
+        <v>3763</v>
       </c>
       <c r="D153" t="n">
-        <v>649</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>1372</v>
+        <v>0</v>
       </c>
       <c r="F153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1694140434265137</v>
+        <v>0.06143736839294434</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>637263696</v>
+        <v>869076591</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -4292,12 +4292,12 @@
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0001709461212158203</v>
+        <v>0.001438617706298828</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>637263696</v>
+        <v>869076591</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4305,24 +4305,24 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7873</v>
+        <v>8149</v>
       </c>
       <c r="D155" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E155" t="n">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="F155" t="b">
         <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>0.02460479736328125</v>
+        <v>0.02966737747192383</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>637263696</v>
+        <v>869076591</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4330,24 +4330,24 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3799</v>
+        <v>7260</v>
       </c>
       <c r="D156" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E156" t="n">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="F156" t="b">
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>0.01050877571105957</v>
+        <v>0.04326462745666504</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>637263696</v>
+        <v>869076591</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4355,24 +4355,24 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1174</v>
+        <v>1707</v>
       </c>
       <c r="D157" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E157" t="n">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="F157" t="b">
         <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>0.003354072570800781</v>
+        <v>0.01037955284118652</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>451111453</v>
+        <v>613633004</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4380,24 +4380,24 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>860</v>
+        <v>7961</v>
       </c>
       <c r="D158" t="n">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E158" t="n">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="F158" t="b">
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>0.001109123229980469</v>
+        <v>0.01186704635620117</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>451111453</v>
+        <v>613633004</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4405,24 +4405,24 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>564</v>
+        <v>5588</v>
       </c>
       <c r="D159" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="F159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159" t="n">
-        <v>0.002216577529907227</v>
+        <v>0.1642735004425049</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>451111453</v>
+        <v>613633004</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -4442,12 +4442,12 @@
         <v>0</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0001766681671142578</v>
+        <v>0.003204822540283203</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>451111453</v>
+        <v>613633004</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4455,24 +4455,24 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>786</v>
+        <v>7843</v>
       </c>
       <c r="D161" t="n">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E161" t="n">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="F161" t="b">
         <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>0.001911640167236328</v>
+        <v>0.02347922325134277</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>451111453</v>
+        <v>613633004</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4480,24 +4480,24 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>987</v>
+        <v>8404</v>
       </c>
       <c r="D162" t="n">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E162" t="n">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="F162" t="b">
         <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>0.002753973007202148</v>
+        <v>0.0244140625</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>451111453</v>
+        <v>613633004</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4505,24 +4505,24 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>125</v>
+        <v>1672</v>
       </c>
       <c r="D163" t="n">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E163" t="n">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="F163" t="b">
         <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0003323554992675781</v>
+        <v>0.004998445510864258</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>253121683</v>
+        <v>607694151</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4530,24 +4530,24 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>8612</v>
+        <v>2162</v>
       </c>
       <c r="D164" t="n">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="E164" t="n">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F164" t="b">
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>0.01291489601135254</v>
+        <v>0.002932071685791016</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>253121683</v>
+        <v>607694151</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4555,24 +4555,24 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>8386</v>
+        <v>5444</v>
       </c>
       <c r="D165" t="n">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>1873</v>
+        <v>0</v>
       </c>
       <c r="F165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1842458248138428</v>
+        <v>0.1450202465057373</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>253121683</v>
+        <v>607694151</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -4592,12 +4592,12 @@
         <v>0</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0001764297485351562</v>
+        <v>0.003509283065795898</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>253121683</v>
+        <v>607694151</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4605,24 +4605,24 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>8562</v>
+        <v>2031</v>
       </c>
       <c r="D167" t="n">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="E167" t="n">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F167" t="b">
         <v>1</v>
       </c>
       <c r="G167" t="n">
-        <v>0.02843332290649414</v>
+        <v>0.005299568176269531</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>253121683</v>
+        <v>607694151</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4630,24 +4630,24 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>5872</v>
+        <v>3125</v>
       </c>
       <c r="D168" t="n">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="E168" t="n">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F168" t="b">
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>0.01876950263977051</v>
+        <v>0.008273839950561523</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>253121683</v>
+        <v>607694151</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4655,24 +4655,24 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1858</v>
+        <v>453</v>
       </c>
       <c r="D169" t="n">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="E169" t="n">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="F169" t="b">
         <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>0.006019830703735352</v>
+        <v>0.001266241073608398</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>114619210</v>
+        <v>655894376</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4680,24 +4680,24 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>4502</v>
+        <v>8822</v>
       </c>
       <c r="D170" t="n">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="E170" t="n">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="F170" t="b">
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>0.006530046463012695</v>
+        <v>0.0134589672088623</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>114619210</v>
+        <v>655894376</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4705,24 +4705,24 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>817</v>
+        <v>4181</v>
       </c>
       <c r="D171" t="n">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1637</v>
+        <v>0</v>
       </c>
       <c r="F171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>0.004439592361450195</v>
+        <v>0.1121945381164551</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>114619210</v>
+        <v>655894376</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -4742,12 +4742,12 @@
         <v>0</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0001938343048095703</v>
+        <v>0.005616426467895508</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>114619210</v>
+        <v>655894376</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4755,24 +4755,24 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>4466</v>
+        <v>8787</v>
       </c>
       <c r="D173" t="n">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="E173" t="n">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="F173" t="b">
         <v>1</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0129239559173584</v>
+        <v>0.04947304725646973</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>114619210</v>
+        <v>655894376</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4780,24 +4780,24 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3488</v>
+        <v>8358</v>
       </c>
       <c r="D174" t="n">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="E174" t="n">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="F174" t="b">
         <v>1</v>
       </c>
       <c r="G174" t="n">
-        <v>0.009119749069213867</v>
+        <v>0.02476596832275391</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>114619210</v>
+        <v>655894376</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4805,24 +4805,24 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>922</v>
+        <v>3309</v>
       </c>
       <c r="D175" t="n">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="E175" t="n">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="F175" t="b">
         <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>0.002591133117675781</v>
+        <v>0.01070547103881836</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>714862711</v>
+        <v>967768904</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -4830,24 +4830,24 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>7179</v>
+        <v>3910</v>
       </c>
       <c r="D176" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="E176" t="n">
-        <v>434</v>
+        <v>85</v>
       </c>
       <c r="F176" t="b">
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>0.01170730590820312</v>
+        <v>0.005292415618896484</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>714862711</v>
+        <v>967768904</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -4855,24 +4855,24 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>5857</v>
+        <v>8709</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1163</v>
       </c>
       <c r="F177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1694753170013428</v>
+        <v>0.1896958351135254</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>714862711</v>
+        <v>967768904</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -4892,12 +4892,12 @@
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.00276947021484375</v>
+        <v>0.001602888107299805</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>714862711</v>
+        <v>967768904</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4905,24 +4905,24 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>7106</v>
+        <v>3876</v>
       </c>
       <c r="D179" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="E179" t="n">
-        <v>434</v>
+        <v>85</v>
       </c>
       <c r="F179" t="b">
         <v>1</v>
       </c>
       <c r="G179" t="n">
-        <v>0.02342939376831055</v>
+        <v>0.01090860366821289</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>714862711</v>
+        <v>967768904</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4930,24 +4930,24 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>7209</v>
+        <v>3085</v>
       </c>
       <c r="D180" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="E180" t="n">
-        <v>434</v>
+        <v>85</v>
       </c>
       <c r="F180" t="b">
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>0.02259612083435059</v>
+        <v>0.008429765701293945</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>714862711</v>
+        <v>967768904</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4955,19 +4955,19 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2465</v>
+        <v>754</v>
       </c>
       <c r="D181" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="E181" t="n">
-        <v>434</v>
+        <v>85</v>
       </c>
       <c r="F181" t="b">
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0087432861328125</v>
+        <v>0.002086400985717773</v>
       </c>
     </row>
   </sheetData>
